--- a/xlsForms/Encuestas Ingeniería/Encuesta Geología sedimentarias clasticas.xlsx
+++ b/xlsForms/Encuestas Ingeniería/Encuesta Geología sedimentarias clasticas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soporte\Documents\GitHub\informesCenso\xlsForms\Encuestas Ingeniería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486A7811-B27A-4FBC-9ADB-0D049F4AD0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BB810C-B9ED-4072-9D6A-7511358D1205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="320">
   <si>
     <t>type</t>
   </si>
@@ -152,9 +152,6 @@
     <t>nombre_encargado</t>
   </si>
   <si>
-    <t>Datos de la recolección: Nombre encargado</t>
-  </si>
-  <si>
     <t>Introduzca el nombre.</t>
   </si>
   <si>
@@ -609,13 +606,394 @@
   </si>
   <si>
     <t>No consolidado</t>
+  </si>
+  <si>
+    <t>proyecto</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
+    <t>Indique el proyecto</t>
+  </si>
+  <si>
+    <t>Nombre encargado</t>
+  </si>
+  <si>
+    <t>color_info</t>
+  </si>
+  <si>
+    <t>Color y porcentaje de color</t>
+  </si>
+  <si>
+    <t>color1</t>
+  </si>
+  <si>
+    <t>Color 1</t>
+  </si>
+  <si>
+    <t>Introduzca el primer color.</t>
+  </si>
+  <si>
+    <t>porcentaje_color1</t>
+  </si>
+  <si>
+    <t>% Color 1</t>
+  </si>
+  <si>
+    <t>Introduzca el porcentaje (0-100%).</t>
+  </si>
+  <si>
+    <t>color2</t>
+  </si>
+  <si>
+    <t>Color 2</t>
+  </si>
+  <si>
+    <t>porcentaje_color2</t>
+  </si>
+  <si>
+    <t>% Color 2</t>
+  </si>
+  <si>
+    <t>select_one meteorizacion</t>
+  </si>
+  <si>
+    <t>meteorizacion</t>
+  </si>
+  <si>
+    <t>Meteorización de la muestra</t>
+  </si>
+  <si>
+    <t>Seleccione el nivel de meteorización.</t>
+  </si>
+  <si>
+    <t>observaciones</t>
+  </si>
+  <si>
+    <t>Observaciones de la muestra</t>
+  </si>
+  <si>
+    <t>multiline</t>
+  </si>
+  <si>
+    <t>Ingrese cualquier observación adicional.</t>
+  </si>
+  <si>
+    <t>debil</t>
+  </si>
+  <si>
+    <t>Débil</t>
+  </si>
+  <si>
+    <t>moderada</t>
+  </si>
+  <si>
+    <t>Moderada</t>
+  </si>
+  <si>
+    <t>alta</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>constraint_message</t>
+  </si>
+  <si>
+    <t>(${porcentaje_color1} + ${porcentaje_color2}) &lt;= 100</t>
+  </si>
+  <si>
+    <t>La suma de los porcentajes no debe superar 100%.</t>
+  </si>
+  <si>
+    <t>${color2} != ''</t>
+  </si>
+  <si>
+    <t>${porcentaje_color1} &lt; 100</t>
+  </si>
+  <si>
+    <t>Introduzca el segundo color.</t>
+  </si>
+  <si>
+    <t>granulometria</t>
+  </si>
+  <si>
+    <t>Granulometría y plasticidad</t>
+  </si>
+  <si>
+    <t>porcentaje_arcilla</t>
+  </si>
+  <si>
+    <t>% Arcilla</t>
+  </si>
+  <si>
+    <t>Introduzca el porcentaje de arcilla.</t>
+  </si>
+  <si>
+    <t>porcentaje_limo</t>
+  </si>
+  <si>
+    <t>% Limo</t>
+  </si>
+  <si>
+    <t>Introduzca el porcentaje de limo.</t>
+  </si>
+  <si>
+    <t>porcentaje_arena_fina</t>
+  </si>
+  <si>
+    <t>% Arena fina</t>
+  </si>
+  <si>
+    <t>Introduzca el porcentaje de arena fina.</t>
+  </si>
+  <si>
+    <t>porcentaje_arena_media</t>
+  </si>
+  <si>
+    <t>% Arena media</t>
+  </si>
+  <si>
+    <t>Introduzca el porcentaje de arena media.</t>
+  </si>
+  <si>
+    <t>porcentaje_arena_gruesa</t>
+  </si>
+  <si>
+    <t>% Arena gruesa</t>
+  </si>
+  <si>
+    <t>Introduzca el porcentaje de arena gruesa.</t>
+  </si>
+  <si>
+    <t>porcentaje_guijos</t>
+  </si>
+  <si>
+    <t>% Guijos</t>
+  </si>
+  <si>
+    <t>Introduzca el porcentaje de guijos.</t>
+  </si>
+  <si>
+    <t>select_one plasticidad</t>
+  </si>
+  <si>
+    <t>plasticidad</t>
+  </si>
+  <si>
+    <t>Plasticidad</t>
+  </si>
+  <si>
+    <t>Seleccione el nivel de plasticidad.</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>prueba_campo</t>
+  </si>
+  <si>
+    <t>PRUEBA DE CAMPO</t>
+  </si>
+  <si>
+    <t>Lea las instrucciones de plasticidad.</t>
+  </si>
+  <si>
+    <t>no_plastico</t>
+  </si>
+  <si>
+    <t>No plástico: No se puede formar un cordón.</t>
+  </si>
+  <si>
+    <t>poco_plastico</t>
+  </si>
+  <si>
+    <t>Poco plástico: Se forma un cordón, pero se rompe fácilmente.</t>
+  </si>
+  <si>
+    <t>plastico</t>
+  </si>
+  <si>
+    <t>Plástico: Se forma un cordón, pero no se puede formar nuevamente.</t>
+  </si>
+  <si>
+    <t>muy_plastico</t>
+  </si>
+  <si>
+    <t>Muy plástico: Se forma un cordón que no se rompe fácilmente.</t>
+  </si>
+  <si>
+    <t>clasificacion_composicional</t>
+  </si>
+  <si>
+    <t>Clasificación Composicional</t>
+  </si>
+  <si>
+    <t>granos_terrigenos</t>
+  </si>
+  <si>
+    <t>Granos terrígenos</t>
+  </si>
+  <si>
+    <t>mineral_granos</t>
+  </si>
+  <si>
+    <t>Mineral</t>
+  </si>
+  <si>
+    <t>Introduzca el mineral principal.</t>
+  </si>
+  <si>
+    <t>porcentaje_granos</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
+  </si>
+  <si>
+    <t>Introduzca el porcentaje (%).</t>
+  </si>
+  <si>
+    <t>tamano_promedio_granos</t>
+  </si>
+  <si>
+    <t>Tamaño promedio</t>
+  </si>
+  <si>
+    <t>Introduzca el tamaño promedio (mm).</t>
+  </si>
+  <si>
+    <t>fragmentos_liticos</t>
+  </si>
+  <si>
+    <t>Fragmentos Líticos</t>
+  </si>
+  <si>
+    <t>tipo_liticos</t>
+  </si>
+  <si>
+    <t>Tipo de Líticos</t>
+  </si>
+  <si>
+    <t>Introduzca el tipo de fragmento lítico.</t>
+  </si>
+  <si>
+    <t>porcentaje_liticos</t>
+  </si>
+  <si>
+    <t>tamano_promedio_liticos</t>
+  </si>
+  <si>
+    <t>opacos</t>
+  </si>
+  <si>
+    <t>Opacos</t>
+  </si>
+  <si>
+    <t>mineral_opacos</t>
+  </si>
+  <si>
+    <t>Introduzca el mineral opaco principal.</t>
+  </si>
+  <si>
+    <t>porcentaje_opacos</t>
+  </si>
+  <si>
+    <t>tamano_promedio_opacos</t>
+  </si>
+  <si>
+    <t>composicion_general</t>
+  </si>
+  <si>
+    <t>Composición General (%)</t>
+  </si>
+  <si>
+    <t>porcentaje_cuarzo</t>
+  </si>
+  <si>
+    <t>% Cuarzo</t>
+  </si>
+  <si>
+    <t>Introduzca el porcentaje de cuarzo (%).</t>
+  </si>
+  <si>
+    <t>porcentaje_feldespato</t>
+  </si>
+  <si>
+    <t>% Feldespato</t>
+  </si>
+  <si>
+    <t>Introduzca el porcentaje de feldespato (%).</t>
+  </si>
+  <si>
+    <t>porcentaje_liticos_total</t>
+  </si>
+  <si>
+    <t>% Líticos</t>
+  </si>
+  <si>
+    <t>Introduzca el porcentaje de líticos (%).</t>
+  </si>
+  <si>
+    <t>observaciones_muestra</t>
+  </si>
+  <si>
+    <t>Agregue comentarios sobre la muestra.</t>
+  </si>
+  <si>
+    <t>registro_fotografico</t>
+  </si>
+  <si>
+    <t>Registro Fotográfico</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>foto_ubicacion</t>
+  </si>
+  <si>
+    <t>Foto de la ubicación</t>
+  </si>
+  <si>
+    <t>Tome o cargue una foto de la ubicación.</t>
+  </si>
+  <si>
+    <t>foto_afloramiento</t>
+  </si>
+  <si>
+    <t>Foto del afloramiento</t>
+  </si>
+  <si>
+    <t>Tome o cargue una foto del afloramiento.</t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t>max-pixels=1024</t>
+  </si>
+  <si>
+    <t>max-pixels=1025</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1_bHMHot77yayV1xgERAx0XtmjzZWktAt0r9hPLmGTDA/edit?usp=drive_link</t>
+  </si>
+  <si>
+    <t>sedclast</t>
+  </si>
+  <si>
+    <t>Encuesta Geología sedimentarias clásticas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,8 +1014,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -650,8 +1048,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -687,11 +1091,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAFAFAF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAFAFAF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFAFAFAF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFAFAFAF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -709,11 +1139,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -996,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,317 +1453,327 @@
     <col min="7" max="7" width="40.28515625" customWidth="1"/>
     <col min="8" max="8" width="31.140625" customWidth="1"/>
     <col min="9" max="9" width="32" customWidth="1"/>
+    <col min="10" max="10" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="3" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="E10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="G10" s="4" t="s">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="4" t="s">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>11</v>
@@ -1331,118 +1781,119 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G19" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>147</v>
+        <v>18</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="5" t="s">
         <v>148</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="G25" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1450,444 +1901,1356 @@
         <v>31</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="E28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="G33" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="4"/>
       <c r="G34" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="G37" s="4" t="s">
-        <v>119</v>
-      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E39" s="4"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="6" t="s">
+      <c r="G39" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="G41" s="4" t="s">
-        <v>127</v>
-      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="4"/>
       <c r="G42" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="E43" s="4"/>
       <c r="G43" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="G46" s="4" t="s">
-        <v>136</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D47" s="4"/>
+        <v>178</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E47" s="4"/>
       <c r="G47" s="4" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G48" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="D50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>74</v>
-      </c>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="G56" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="G57" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" t="s">
+        <v>228</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" t="s">
+        <v>227</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J59" t="s">
+        <v>225</v>
+      </c>
+      <c r="K59" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+    </row>
+    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+    </row>
+    <row r="96" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" spans="1:12" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="1:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="L98" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="L99" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D6E2B3-AFE4-43FF-AD57-BF2B323855CD}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,222 +3295,299 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>193</v>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2157,17 +3597,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA56C12-A897-44BA-805B-5EA32E5143C8}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="76" customWidth="1"/>
+    <col min="3" max="3" width="108" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2181,6 +3621,17 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" t="s">
+        <v>317</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
